--- a/report.xlsx
+++ b/report.xlsx
@@ -445,9 +445,9 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
-    <col width="37.2" customWidth="1" min="3" max="3"/>
+    <col width="38.4" customWidth="1" min="3" max="3"/>
     <col width="25.2" customWidth="1" min="4" max="4"/>
-    <col width="40.8" customWidth="1" min="5" max="5"/>
+    <col width="42" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -463,7 +463,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Средняя зарплата - Специалист</t>
+          <t>Средняя зарплата - Программист</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Количество вакансий - Специалист</t>
+          <t>Количество вакансий - Программист</t>
         </is>
       </c>
     </row>
@@ -485,13 +485,13 @@
         <v>38916</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>28914</v>
+        <v>43770</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2196</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>197</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>43646</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>33448</v>
+        <v>50412</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>17549</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1430</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="4">
@@ -519,13 +519,13 @@
         <v>42492</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>31680</v>
+        <v>46699</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>17709</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1333</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +536,13 @@
         <v>43846</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>33576</v>
+        <v>50570</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>29093</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2487</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="6">
@@ -553,13 +553,13 @@
         <v>47451</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>34938</v>
+        <v>55770</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>36700</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3993</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
@@ -570,13 +570,13 @@
         <v>48243</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>32345</v>
+        <v>57960</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>44153</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>5174</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="8">
@@ -587,13 +587,13 @@
         <v>51510</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>33333</v>
+        <v>58804</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>59954</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>7854</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="9">
@@ -604,13 +604,13 @@
         <v>50658</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>35006</v>
+        <v>62384</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>66837</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>6179</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="10">
@@ -621,13 +621,13 @@
         <v>52696</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>36942</v>
+        <v>62322</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>70039</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6188</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="11">
@@ -638,13 +638,13 @@
         <v>62675</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>37799</v>
+        <v>66817</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>75145</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>5870</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         <v>60935</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>39883</v>
+        <v>72460</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>82823</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>6876</v>
+        <v>8105</v>
       </c>
     </row>
     <row r="13">
@@ -672,13 +672,13 @@
         <v>58335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>41184</v>
+        <v>76879</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>131701</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>9226</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="14">
@@ -689,13 +689,13 @@
         <v>69467</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>46355</v>
+        <v>85300</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>115086</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>10291</v>
+        <v>9016</v>
       </c>
     </row>
     <row r="15">
@@ -706,13 +706,13 @@
         <v>73431</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>45092</v>
+        <v>89791</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>102243</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>9021</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="16">
@@ -723,13 +723,13 @@
         <v>82690</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>47426</v>
+        <v>100987</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>57623</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>5589</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="17">
@@ -740,13 +740,13 @@
         <v>91795</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>52785</v>
+        <v>116651</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1279</v>
+        <v>1115</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,11 +820,11 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Новосибирск</t>
+          <t>Санкт-Петербург</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>62254</v>
+        <v>65286</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr">
@@ -839,11 +839,11 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Екатеринбург</t>
+          <t>Новосибирск</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>60962</v>
+        <v>62254</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr">
@@ -858,11 +858,11 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Казань</t>
+          <t>Екатеринбург</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>52580</v>
+        <v>60962</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr">
@@ -877,11 +877,11 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Краснодар</t>
+          <t>Казань</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>51644</v>
+        <v>52580</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr">
@@ -896,11 +896,11 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Челябинск</t>
+          <t>Краснодар</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>51265</v>
+        <v>51644</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr">
@@ -915,11 +915,11 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Самара</t>
+          <t>Челябинск</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>50994</v>
+        <v>51265</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr">
@@ -934,11 +934,11 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Пермь</t>
+          <t>Самара</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>48089</v>
+        <v>50994</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr">
@@ -953,12 +953,11 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Санкт
-Петербург</t>
+          <t>Пермь</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>65286</v>
+        <v>48089</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr">
@@ -973,8 +972,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Нижний
-Новгород</t>
+          <t>Нижний Новгород</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -988,19 +986,6 @@
       </c>
       <c r="E11" s="4" t="n">
         <v>0.0141</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>Другие</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
